--- a/CASUAL/LA TICC/DILIDILI, AIREEN.xlsx
+++ b/CASUAL/LA TICC/DILIDILI, AIREEN.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="100">
   <si>
     <t>PERIOD</t>
   </si>
@@ -318,6 +318,24 @@
   </si>
   <si>
     <t>UT(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-9)</t>
+  </si>
+  <si>
+    <t>UT(0-0-21)</t>
+  </si>
+  <si>
+    <t>UT(0-2-6)</t>
+  </si>
+  <si>
+    <t>UT(0-1-14)</t>
+  </si>
+  <si>
+    <t>UT(0-0-46)</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1273,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K196" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K198" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1614,12 +1632,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K196"/>
+  <dimension ref="A2:K198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A54" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1798,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>61.5</v>
+        <v>60.424999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2933,11 +2951,15 @@
       <c r="A66" s="41">
         <v>44681</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="40"/>
+      <c r="D66" s="40">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -2953,11 +2975,15 @@
       <c r="A67" s="41">
         <v>44712</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="40"/>
+      <c r="D67" s="40">
+        <v>0.15400000000000003</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -2992,19 +3018,19 @@
       <c r="K68" s="48"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="41">
-        <v>44773</v>
-      </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D69" s="40"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="40">
+        <v>0.26200000000000001</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H69" s="40"/>
       <c r="I69" s="9"/>
@@ -3013,15 +3039,17 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
-        <v>44804</v>
+        <v>44773</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="40"/>
+      <c r="D70" s="40">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -3035,7 +3063,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
-        <v>44834</v>
+        <v>44804</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>50</v>
@@ -3056,19 +3084,19 @@
       <c r="K71" s="48"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="41">
-        <v>44865</v>
-      </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D72" s="40"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="40">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H72" s="40"/>
       <c r="I72" s="9"/>
@@ -3077,9 +3105,11 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
-        <v>44895</v>
-      </c>
-      <c r="B73" s="20"/>
+        <v>44834</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
@@ -3093,20 +3123,20 @@
       <c r="H73" s="40"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="48"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
-        <v>44926</v>
+        <v>44865</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
       <c r="D74" s="40">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
@@ -3117,22 +3147,22 @@
       <c r="H74" s="40"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="48"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="40">
-        <v>1</v>
-      </c>
+      <c r="A75" s="41">
+        <v>44895</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D75" s="40"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="40"/>
       <c r="I75" s="9"/>
@@ -3140,17 +3170,23 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="40"/>
+      <c r="A76" s="41">
+        <v>44926</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D76" s="40">
+        <v>5</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="40"/>
       <c r="I76" s="9"/>
@@ -3158,39 +3194,37 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="41">
-        <v>44957</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D77" s="40"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="40">
+        <v>1</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H77" s="40"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="48"/>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="41">
-        <v>44985</v>
+      <c r="A78" s="47" t="s">
+        <v>80</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C78" s="13"/>
       <c r="D78" s="40"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="9"/>
@@ -3199,7 +3233,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
-        <v>45016</v>
+        <v>44957</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -3215,11 +3249,11 @@
       <c r="H79" s="40"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="48"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
-        <v>45046</v>
+        <v>44985</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -3239,7 +3273,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
-        <v>45077</v>
+        <v>45016</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -3259,7 +3293,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
-        <v>45107</v>
+        <v>45046</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -3279,7 +3313,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
-        <v>45138</v>
+        <v>45077</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -3295,11 +3329,11 @@
       <c r="H83" s="40"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="48"/>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
-        <v>45169</v>
+        <v>45107</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -3319,7 +3353,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
-        <v>45199</v>
+        <v>45138</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -3339,7 +3373,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
-        <v>45230</v>
+        <v>45169</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -3359,34 +3393,38 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
-        <v>45260</v>
+        <v>45199</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="40"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="40"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="48"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41">
-        <v>45291</v>
+        <v>45230</v>
       </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="40"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="40"/>
       <c r="I88" s="9"/>
@@ -3395,7 +3433,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41">
-        <v>45322</v>
+        <v>45260</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3413,7 +3451,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41">
-        <v>45351</v>
+        <v>45291</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3431,7 +3469,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41">
-        <v>45382</v>
+        <v>45322</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3449,7 +3487,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3467,7 +3505,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41">
-        <v>45443</v>
+        <v>45382</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3485,7 +3523,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41">
-        <v>45473</v>
+        <v>45412</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3503,7 +3541,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41">
-        <v>45504</v>
+        <v>45443</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3521,7 +3559,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3539,7 +3577,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41">
-        <v>45565</v>
+        <v>45504</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3557,7 +3595,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41">
-        <v>45596</v>
+        <v>45535</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3575,7 +3613,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41">
-        <v>45626</v>
+        <v>45565</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3593,7 +3631,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41">
-        <v>45657</v>
+        <v>45596</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3611,7 +3649,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41">
-        <v>45688</v>
+        <v>45626</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3629,7 +3667,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41">
-        <v>45716</v>
+        <v>45657</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3647,7 +3685,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
-        <v>45747</v>
+        <v>45688</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3665,7 +3703,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41">
-        <v>45777</v>
+        <v>45716</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3683,7 +3721,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41">
-        <v>45808</v>
+        <v>45747</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3701,7 +3739,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41">
-        <v>45838</v>
+        <v>45777</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3719,7 +3757,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41">
-        <v>45869</v>
+        <v>45808</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3737,7 +3775,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41">
-        <v>45900</v>
+        <v>45838</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3755,7 +3793,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41">
-        <v>45930</v>
+        <v>45869</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3773,7 +3811,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="41">
-        <v>45961</v>
+        <v>45900</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3791,7 +3829,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41">
-        <v>45991</v>
+        <v>45930</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3809,7 +3847,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="41">
-        <v>46022</v>
+        <v>45961</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3827,7 +3865,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="41">
-        <v>46053</v>
+        <v>45991</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3845,7 +3883,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41">
-        <v>46081</v>
+        <v>46022</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3863,7 +3901,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41">
-        <v>46112</v>
+        <v>46053</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3881,7 +3919,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41">
-        <v>46142</v>
+        <v>46081</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3899,7 +3937,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="41">
-        <v>46173</v>
+        <v>46112</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3917,7 +3955,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="41">
-        <v>46203</v>
+        <v>46142</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3935,7 +3973,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="41">
-        <v>46234</v>
+        <v>46173</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3953,7 +3991,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="41">
-        <v>46265</v>
+        <v>46203</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3971,7 +4009,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41">
-        <v>46295</v>
+        <v>46234</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3989,7 +4027,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="41">
-        <v>46326</v>
+        <v>46265</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4007,7 +4045,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="41">
-        <v>46356</v>
+        <v>46295</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4025,7 +4063,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41">
-        <v>46387</v>
+        <v>46326</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4043,7 +4081,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="41">
-        <v>46418</v>
+        <v>46356</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4061,7 +4099,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="41">
-        <v>46446</v>
+        <v>46387</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4079,7 +4117,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41">
-        <v>46477</v>
+        <v>46418</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4097,7 +4135,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41">
-        <v>46507</v>
+        <v>46446</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4115,7 +4153,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="41">
-        <v>46538</v>
+        <v>46477</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4133,7 +4171,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41">
-        <v>46568</v>
+        <v>46507</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4151,7 +4189,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41">
-        <v>46599</v>
+        <v>46538</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4169,7 +4207,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41">
-        <v>46630</v>
+        <v>46568</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4187,7 +4225,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41">
-        <v>46660</v>
+        <v>46599</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4205,7 +4243,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41">
-        <v>46691</v>
+        <v>46630</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4223,7 +4261,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41">
-        <v>46721</v>
+        <v>46660</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4241,7 +4279,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41">
-        <v>46752</v>
+        <v>46691</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4259,7 +4297,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41">
-        <v>46783</v>
+        <v>46721</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4277,7 +4315,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41">
-        <v>46812</v>
+        <v>46752</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4295,7 +4333,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="41">
-        <v>46843</v>
+        <v>46783</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4313,7 +4351,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="41">
-        <v>46873</v>
+        <v>46812</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4331,7 +4369,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41">
-        <v>46904</v>
+        <v>46843</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4349,7 +4387,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="41">
-        <v>46934</v>
+        <v>46873</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4367,7 +4405,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="41">
-        <v>46965</v>
+        <v>46904</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4385,7 +4423,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="41">
-        <v>46996</v>
+        <v>46934</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4403,7 +4441,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="41">
-        <v>47026</v>
+        <v>46965</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4421,7 +4459,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="41">
-        <v>47057</v>
+        <v>46996</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4438,7 +4476,9 @@
       <c r="K146" s="20"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="41"/>
+      <c r="A147" s="41">
+        <v>47026</v>
+      </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
       <c r="D147" s="40"/>
@@ -4454,7 +4494,9 @@
       <c r="K147" s="20"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="41"/>
+      <c r="A148" s="41">
+        <v>47057</v>
+      </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
       <c r="D148" s="40"/>
@@ -5222,20 +5264,52 @@
       <c r="K195" s="20"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="42"/>
-      <c r="B196" s="15"/>
-      <c r="C196" s="43"/>
-      <c r="D196" s="44"/>
+      <c r="A196" s="41"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="40"/>
       <c r="E196" s="9"/>
-      <c r="F196" s="15"/>
-      <c r="G196" s="43" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H196" s="44"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H196" s="40"/>
       <c r="I196" s="9"/>
-      <c r="J196" s="12"/>
-      <c r="K196" s="15"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="20"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="41"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="40"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H197" s="40"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="20"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="42"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="43"/>
+      <c r="D198" s="44"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="43" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H198" s="44"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10191,7 +10265,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K1:K1048576"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10259,10 +10333,12 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="11">
+        <v>46</v>
+      </c>
       <c r="G3" s="46">
         <f>SUM(D3,E4,F4)</f>
-        <v>0</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="J3" s="35"/>
       <c r="K3" s="36">
@@ -10281,7 +10357,7 @@
       </c>
       <c r="F4" s="1">
         <f>IF(F3=0,0,IF(ISBLANK(F3),"",VLOOKUP(F3,C7:D66,2)))</f>
-        <v>0</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">

--- a/CASUAL/LA TICC/DILIDILI, AIREEN.xlsx
+++ b/CASUAL/LA TICC/DILIDILI, AIREEN.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="103">
   <si>
     <t>PERIOD</t>
   </si>
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t>UT(0-0-46)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>01/29-31/2024</t>
   </si>
 </sst>
 </file>
@@ -725,14 +734,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -742,9 +754,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1273,7 +1282,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K198" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K199" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1632,12 +1641,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K198"/>
+  <dimension ref="A2:K199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A54" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomLeft" activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,14 +1676,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1685,16 +1694,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>38019</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1707,14 +1716,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1740,18 +1749,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1798,7 +1807,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>60.424999999999997</v>
+        <v>59.174999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1808,7 +1817,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>87.5</v>
+        <v>88.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3436,13 +3445,15 @@
         <v>45260</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="40"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="9"/>
@@ -3453,14 +3464,20 @@
       <c r="A90" s="41">
         <v>45291</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="40"/>
+      <c r="B90" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D90" s="40">
+        <v>5</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="40"/>
       <c r="I90" s="9"/>
@@ -3468,18 +3485,15 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="41">
-        <v>45322</v>
+      <c r="A91" s="47" t="s">
+        <v>100</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="40"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G91" s="13"/>
       <c r="H91" s="40"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
@@ -3487,16 +3501,18 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="40"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="40"/>
       <c r="I92" s="9"/>
@@ -3505,9 +3521,11 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41">
-        <v>45382</v>
-      </c>
-      <c r="B93" s="20"/>
+        <v>45351</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="C93" s="13"/>
       <c r="D93" s="40"/>
       <c r="E93" s="9"/>
@@ -3516,14 +3534,18 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H93" s="40"/>
+      <c r="H93" s="40">
+        <v>3</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="20" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3541,7 +3563,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3559,7 +3581,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3577,7 +3599,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3595,7 +3617,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3613,7 +3635,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3631,7 +3653,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3649,7 +3671,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3667,7 +3689,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3685,7 +3707,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3703,7 +3725,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3721,7 +3743,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3739,7 +3761,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3757,7 +3779,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3775,7 +3797,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3793,7 +3815,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3811,7 +3833,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="41">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3829,7 +3851,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3847,7 +3869,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="41">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3865,7 +3887,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="41">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3883,7 +3905,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3901,7 +3923,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3919,7 +3941,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3937,7 +3959,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="41">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3955,7 +3977,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="41">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3973,7 +3995,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="41">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3991,7 +4013,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="41">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4009,7 +4031,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4027,7 +4049,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="41">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4045,7 +4067,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="41">
-        <v>46295</v>
+        <v>46265</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4063,7 +4085,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41">
-        <v>46326</v>
+        <v>46295</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4081,7 +4103,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="41">
-        <v>46356</v>
+        <v>46326</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4099,7 +4121,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="41">
-        <v>46387</v>
+        <v>46356</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4117,7 +4139,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41">
-        <v>46418</v>
+        <v>46387</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4135,7 +4157,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41">
-        <v>46446</v>
+        <v>46418</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4153,7 +4175,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="41">
-        <v>46477</v>
+        <v>46446</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4171,7 +4193,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41">
-        <v>46507</v>
+        <v>46477</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4189,7 +4211,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41">
-        <v>46538</v>
+        <v>46507</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4207,7 +4229,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41">
-        <v>46568</v>
+        <v>46538</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4225,7 +4247,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41">
-        <v>46599</v>
+        <v>46568</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4243,7 +4265,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41">
-        <v>46630</v>
+        <v>46599</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4261,7 +4283,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41">
-        <v>46660</v>
+        <v>46630</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4279,7 +4301,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41">
-        <v>46691</v>
+        <v>46660</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4297,7 +4319,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41">
-        <v>46721</v>
+        <v>46691</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4315,7 +4337,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41">
-        <v>46752</v>
+        <v>46721</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4333,7 +4355,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="41">
-        <v>46783</v>
+        <v>46752</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4351,7 +4373,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="41">
-        <v>46812</v>
+        <v>46783</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4369,7 +4391,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41">
-        <v>46843</v>
+        <v>46812</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4387,7 +4409,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="41">
-        <v>46873</v>
+        <v>46843</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4405,7 +4427,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="41">
-        <v>46904</v>
+        <v>46873</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4423,7 +4445,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="41">
-        <v>46934</v>
+        <v>46904</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4441,7 +4463,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="41">
-        <v>46965</v>
+        <v>46934</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4459,7 +4481,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="41">
-        <v>46996</v>
+        <v>46965</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4477,7 +4499,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="41">
-        <v>47026</v>
+        <v>46996</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4495,7 +4517,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="41">
-        <v>47057</v>
+        <v>47026</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4512,7 +4534,9 @@
       <c r="K148" s="20"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="41"/>
+      <c r="A149" s="41">
+        <v>47057</v>
+      </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
       <c r="D149" s="40"/>
@@ -5296,34 +5320,50 @@
       <c r="K197" s="20"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="42"/>
-      <c r="B198" s="15"/>
-      <c r="C198" s="43"/>
-      <c r="D198" s="44"/>
+      <c r="A198" s="41"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="40"/>
       <c r="E198" s="9"/>
-      <c r="F198" s="15"/>
-      <c r="G198" s="43" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H198" s="44"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H198" s="40"/>
       <c r="I198" s="9"/>
-      <c r="J198" s="12"/>
-      <c r="K198" s="15"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="20"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="42"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="43"/>
+      <c r="D199" s="44"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="43" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H199" s="44"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5391,14 +5431,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5409,16 +5449,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>38019</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5431,14 +5471,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5464,18 +5504,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/CASUAL/LA TICC/DILIDILI, AIREEN.xlsx
+++ b/CASUAL/LA TICC/DILIDILI, AIREEN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA TICC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA TICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A3D26B-E3FC-4646-8029-45E5F0671AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="104">
   <si>
     <t>PERIOD</t>
   </si>
@@ -346,11 +347,14 @@
   <si>
     <t>01/29-31/2024</t>
   </si>
+  <si>
+    <t>2/22,23/2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -586,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,23 +732,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -754,6 +752,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1265,7 +1266,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1282,25 +1283,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K199" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K200" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1312,25 +1313,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K251" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K251" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1637,47 +1638,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K199"/>
+  <dimension ref="A2:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="J78" sqref="J78"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
@@ -1685,16 +1686,16 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="53">
         <v>38019</v>
       </c>
       <c r="G3" s="51"/>
@@ -1702,17 +1703,17 @@
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
@@ -1725,7 +1726,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1733,7 +1734,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1746,24 +1747,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1807,7 +1808,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>59.174999999999997</v>
+        <v>57.174999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1822,7 +1823,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -1844,8 +1845,8 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
         <v>43131</v>
       </c>
       <c r="B11" s="20"/>
@@ -1864,8 +1865,8 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
         <v>43159</v>
       </c>
       <c r="B12" s="20"/>
@@ -1884,8 +1885,8 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="49">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
         <v>43190</v>
       </c>
       <c r="B13" s="20"/>
@@ -1904,8 +1905,8 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="49">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <v>43220</v>
       </c>
       <c r="B14" s="20"/>
@@ -1924,8 +1925,8 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
         <v>43251</v>
       </c>
       <c r="B15" s="20"/>
@@ -1944,8 +1945,8 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
         <v>43281</v>
       </c>
       <c r="B16" s="20"/>
@@ -1964,8 +1965,8 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
         <v>43312</v>
       </c>
       <c r="B17" s="20"/>
@@ -1984,8 +1985,8 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
         <v>43343</v>
       </c>
       <c r="B18" s="20"/>
@@ -2004,8 +2005,8 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
         <v>43373</v>
       </c>
       <c r="B19" s="20"/>
@@ -2024,8 +2025,8 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
         <v>43404</v>
       </c>
       <c r="B20" s="20"/>
@@ -2044,8 +2045,8 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
         <v>43434</v>
       </c>
       <c r="B21" s="20"/>
@@ -2064,8 +2065,8 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
         <v>43465</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -2088,7 +2089,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>55</v>
       </c>
@@ -2106,8 +2107,8 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
         <v>43496</v>
       </c>
       <c r="B24" s="20"/>
@@ -2126,8 +2127,8 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="49">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
         <v>43524</v>
       </c>
       <c r="B25" s="20"/>
@@ -2146,8 +2147,8 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
         <v>43555</v>
       </c>
       <c r="B26" s="20"/>
@@ -2166,8 +2167,8 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
         <v>43585</v>
       </c>
       <c r="B27" s="20"/>
@@ -2186,8 +2187,8 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="49">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
         <v>43616</v>
       </c>
       <c r="B28" s="20"/>
@@ -2206,8 +2207,8 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="49">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
         <v>43646</v>
       </c>
       <c r="B29" s="20"/>
@@ -2226,8 +2227,8 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="49">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
         <v>43677</v>
       </c>
       <c r="B30" s="20"/>
@@ -2246,8 +2247,8 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="49">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
         <v>43708</v>
       </c>
       <c r="B31" s="20"/>
@@ -2266,8 +2267,8 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="49">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
         <v>43738</v>
       </c>
       <c r="B32" s="20"/>
@@ -2286,8 +2287,8 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="49">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
         <v>43769</v>
       </c>
       <c r="B33" s="20"/>
@@ -2306,8 +2307,8 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="49">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
         <v>43799</v>
       </c>
       <c r="B34" s="20"/>
@@ -2326,8 +2327,8 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="49">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
         <v>43830</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -2350,7 +2351,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>61</v>
       </c>
@@ -2368,8 +2369,8 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="49">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="23">
         <v>43861</v>
       </c>
       <c r="B37" s="20"/>
@@ -2388,8 +2389,8 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="49">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="23">
         <v>43890</v>
       </c>
       <c r="B38" s="20"/>
@@ -2408,8 +2409,8 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="49">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="23">
         <v>43921</v>
       </c>
       <c r="B39" s="20"/>
@@ -2428,8 +2429,8 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="49">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
         <v>43951</v>
       </c>
       <c r="B40" s="20"/>
@@ -2448,8 +2449,8 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="49">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="23">
         <v>43982</v>
       </c>
       <c r="B41" s="20"/>
@@ -2468,8 +2469,8 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="49">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="23">
         <v>44012</v>
       </c>
       <c r="B42" s="20"/>
@@ -2488,8 +2489,8 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="49">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="23">
         <v>44043</v>
       </c>
       <c r="B43" s="20"/>
@@ -2508,8 +2509,8 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="49">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
         <v>44074</v>
       </c>
       <c r="B44" s="20"/>
@@ -2528,8 +2529,8 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="49">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
         <v>44104</v>
       </c>
       <c r="B45" s="20"/>
@@ -2548,8 +2549,8 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="49">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
         <v>44135</v>
       </c>
       <c r="B46" s="20"/>
@@ -2568,8 +2569,8 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="49">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="23">
         <v>44165</v>
       </c>
       <c r="B47" s="20"/>
@@ -2588,8 +2589,8 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="49">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="23">
         <v>44196</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -2612,7 +2613,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>73</v>
       </c>
@@ -2630,7 +2631,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44227</v>
       </c>
@@ -2650,7 +2651,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>44255</v>
       </c>
@@ -2670,7 +2671,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44286</v>
       </c>
@@ -2690,7 +2691,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44316</v>
       </c>
@@ -2710,7 +2711,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>44347</v>
       </c>
@@ -2730,7 +2731,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44377</v>
       </c>
@@ -2750,7 +2751,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>44408</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44439</v>
       </c>
@@ -2792,7 +2793,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>44469</v>
       </c>
@@ -2812,7 +2813,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>44500</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>44530</v>
       </c>
@@ -2854,7 +2855,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44561</v>
       </c>
@@ -2878,7 +2879,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>77</v>
       </c>
@@ -2896,7 +2897,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44592</v>
       </c>
@@ -2916,7 +2917,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>44620</v>
       </c>
@@ -2936,7 +2937,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>44651</v>
       </c>
@@ -2956,7 +2957,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>44681</v>
       </c>
@@ -2980,7 +2981,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>44712</v>
       </c>
@@ -3004,7 +3005,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
         <v>44742</v>
       </c>
@@ -3026,7 +3027,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="20" t="s">
         <v>97</v>
@@ -3046,7 +3047,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="48"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>44773</v>
       </c>
@@ -3070,7 +3071,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="48"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>44804</v>
       </c>
@@ -3092,7 +3093,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="48"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="20" t="s">
         <v>95</v>
@@ -3112,7 +3113,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="48"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
         <v>44834</v>
       </c>
@@ -3134,7 +3135,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="48"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>44865</v>
       </c>
@@ -3158,7 +3159,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="48"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="41">
         <v>44895</v>
       </c>
@@ -3178,7 +3179,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
         <v>44926</v>
       </c>
@@ -3202,7 +3203,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41"/>
       <c r="B77" s="20" t="s">
         <v>93</v>
@@ -3222,7 +3223,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="47" t="s">
         <v>80</v>
       </c>
@@ -3240,7 +3241,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
         <v>44957</v>
       </c>
@@ -3260,7 +3261,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="48"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
         <v>44985</v>
       </c>
@@ -3280,7 +3281,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
         <v>45016</v>
       </c>
@@ -3300,7 +3301,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
         <v>45046</v>
       </c>
@@ -3320,7 +3321,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41">
         <v>45077</v>
       </c>
@@ -3340,7 +3341,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
         <v>45107</v>
       </c>
@@ -3360,7 +3361,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41">
         <v>45138</v>
       </c>
@@ -3380,7 +3381,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="48"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41">
         <v>45169</v>
       </c>
@@ -3400,7 +3401,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41">
         <v>45199</v>
       </c>
@@ -3420,7 +3421,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="48"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41">
         <v>45230</v>
       </c>
@@ -3440,7 +3441,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41">
         <v>45260</v>
       </c>
@@ -3460,7 +3461,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41">
         <v>45291</v>
       </c>
@@ -3484,7 +3485,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="47" t="s">
         <v>100</v>
       </c>
@@ -3499,7 +3500,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41">
         <v>45322</v>
       </c>
@@ -3519,7 +3520,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41">
         <v>45351</v>
       </c>
@@ -3543,13 +3544,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="41">
-        <v>45382</v>
-      </c>
-      <c r="B94" s="20"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="41"/>
+      <c r="B94" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="40"/>
+      <c r="D94" s="40">
+        <v>2</v>
+      </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
       <c r="G94" s="13" t="str">
@@ -3559,11 +3562,13 @@
       <c r="H94" s="40"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3579,9 +3584,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3597,9 +3602,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3615,9 +3620,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3633,9 +3638,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3651,9 +3656,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3669,9 +3674,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3687,9 +3692,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3705,9 +3710,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3723,9 +3728,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3741,9 +3746,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3759,9 +3764,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3777,9 +3782,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3795,9 +3800,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3813,9 +3818,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3831,9 +3836,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3849,9 +3854,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3867,9 +3872,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3885,9 +3890,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="41">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3903,9 +3908,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3921,9 +3926,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3939,9 +3944,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3957,9 +3962,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3975,9 +3980,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3993,9 +3998,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="41">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4011,9 +4016,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="41">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4029,9 +4034,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4047,9 +4052,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="41">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4065,9 +4070,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4083,9 +4088,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41">
-        <v>46295</v>
+        <v>46265</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4101,9 +4106,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41">
-        <v>46326</v>
+        <v>46295</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4119,9 +4124,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="41">
-        <v>46356</v>
+        <v>46326</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4137,9 +4142,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="41">
-        <v>46387</v>
+        <v>46356</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4155,9 +4160,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="41">
-        <v>46418</v>
+        <v>46387</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4173,9 +4178,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="41">
-        <v>46446</v>
+        <v>46418</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4191,9 +4196,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41">
-        <v>46477</v>
+        <v>46446</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4209,9 +4214,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41">
-        <v>46507</v>
+        <v>46477</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4227,9 +4232,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41">
-        <v>46538</v>
+        <v>46507</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4245,9 +4250,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41">
-        <v>46568</v>
+        <v>46538</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4263,9 +4268,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41">
-        <v>46599</v>
+        <v>46568</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4281,9 +4286,9 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41">
-        <v>46630</v>
+        <v>46599</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4299,9 +4304,9 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41">
-        <v>46660</v>
+        <v>46630</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4317,9 +4322,9 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41">
-        <v>46691</v>
+        <v>46660</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4335,9 +4340,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41">
-        <v>46721</v>
+        <v>46691</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4353,9 +4358,9 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="41">
-        <v>46752</v>
+        <v>46721</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4371,9 +4376,9 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="41">
-        <v>46783</v>
+        <v>46752</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4389,9 +4394,9 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="41">
-        <v>46812</v>
+        <v>46783</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4407,9 +4412,9 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="41">
-        <v>46843</v>
+        <v>46812</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4425,9 +4430,9 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="41">
-        <v>46873</v>
+        <v>46843</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4443,9 +4448,9 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="41">
-        <v>46904</v>
+        <v>46873</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4461,9 +4466,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="41">
-        <v>46934</v>
+        <v>46904</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4479,9 +4484,9 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="41">
-        <v>46965</v>
+        <v>46934</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4497,9 +4502,9 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="41">
-        <v>46996</v>
+        <v>46965</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4515,9 +4520,9 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="41">
-        <v>47026</v>
+        <v>46996</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4533,9 +4538,9 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="41">
-        <v>47057</v>
+        <v>47026</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4551,8 +4556,10 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="41"/>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="41">
+        <v>47057</v>
+      </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
       <c r="D150" s="40"/>
@@ -4567,7 +4574,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="41"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4583,7 +4590,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="41"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4599,7 +4606,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="41"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4615,7 +4622,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="41"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4631,7 +4638,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="41"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4647,7 +4654,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="41"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4663,7 +4670,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -4679,7 +4686,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="41"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -4695,7 +4702,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="41"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -4711,7 +4718,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="41"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -4727,7 +4734,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="41"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -4743,7 +4750,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="41"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -4759,7 +4766,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="41"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -4775,7 +4782,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="41"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -4791,7 +4798,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -4807,7 +4814,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="41"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -4823,7 +4830,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="41"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -4839,7 +4846,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="41"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -4855,7 +4862,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="41"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -4871,7 +4878,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="41"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -4887,7 +4894,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="41"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -4903,7 +4910,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="41"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -4919,7 +4926,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="41"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -4935,7 +4942,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -4951,7 +4958,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="41"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -4967,7 +4974,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="41"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -4983,7 +4990,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="41"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -4999,7 +5006,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="41"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -5015,7 +5022,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="41"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -5031,7 +5038,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="41"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -5047,7 +5054,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="41"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -5063,7 +5070,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="41"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -5079,7 +5086,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="41"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -5095,7 +5102,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="41"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -5111,7 +5118,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="41"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -5127,7 +5134,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="41"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5143,7 +5150,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="41"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5159,7 +5166,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="41"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -5175,7 +5182,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="41"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -5191,7 +5198,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="41"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -5207,7 +5214,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="41"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -5223,7 +5230,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="41"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5239,7 +5246,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="41"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5255,7 +5262,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="41"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5271,7 +5278,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="41"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5287,7 +5294,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="41"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5303,7 +5310,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="41"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5319,7 +5326,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="41"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5335,41 +5342,57 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="42"/>
-      <c r="B199" s="15"/>
-      <c r="C199" s="43"/>
-      <c r="D199" s="44"/>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="41"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="40"/>
       <c r="E199" s="9"/>
-      <c r="F199" s="15"/>
-      <c r="G199" s="43" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H199" s="44"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H199" s="40"/>
       <c r="I199" s="9"/>
-      <c r="J199" s="12"/>
-      <c r="K199" s="15"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="20"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="42"/>
+      <c r="B200" s="15"/>
+      <c r="C200" s="43"/>
+      <c r="D200" s="44"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="43" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H200" s="44"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5392,47 +5415,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K251"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A118" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A118" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
       <selection pane="bottomLeft" activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
@@ -5440,16 +5463,16 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="53">
         <v>38019</v>
       </c>
       <c r="G3" s="51"/>
@@ -5457,17 +5480,17 @@
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
@@ -5480,7 +5503,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5488,7 +5511,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5501,24 +5524,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5553,7 +5576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5577,7 +5600,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -5599,7 +5622,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -5623,7 +5646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -5645,7 +5668,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41"/>
       <c r="B13" s="20" t="s">
         <v>47</v>
@@ -5667,7 +5690,7 @@
         <v>43121</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41"/>
       <c r="B14" s="20" t="s">
         <v>46</v>
@@ -5689,7 +5712,7 @@
         <v>43130</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -5705,7 +5728,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="42">
         <v>43132</v>
       </c>
@@ -5729,7 +5752,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41"/>
       <c r="B17" s="20" t="s">
         <v>47</v>
@@ -5751,7 +5774,7 @@
         <v>43146</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -5767,7 +5790,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43160</v>
       </c>
@@ -5791,7 +5814,7 @@
         <v>43162</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -5813,7 +5836,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -5829,7 +5852,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43191</v>
       </c>
@@ -5853,7 +5876,7 @@
         <v>43193</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41"/>
       <c r="B23" s="20" t="s">
         <v>46</v>
@@ -5875,7 +5898,7 @@
         <v>43214</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
@@ -5897,7 +5920,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -5919,7 +5942,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -5935,7 +5958,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43221</v>
       </c>
@@ -5959,7 +5982,7 @@
         <v>43223</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -5975,7 +5998,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43252</v>
       </c>
@@ -5997,7 +6020,7 @@
         <v>43253</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -6019,7 +6042,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41"/>
       <c r="B31" s="20" t="s">
         <v>47</v>
@@ -6041,7 +6064,7 @@
         <v>43274</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41"/>
       <c r="B32" s="20" t="s">
         <v>47</v>
@@ -6063,7 +6086,7 @@
         <v>43254</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6079,7 +6102,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>43282</v>
       </c>
@@ -6103,7 +6126,7 @@
         <v>43304</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -6125,7 +6148,7 @@
         <v>43308</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6141,7 +6164,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>43313</v>
       </c>
@@ -6165,7 +6188,7 @@
         <v>43326</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41"/>
       <c r="B38" s="20" t="s">
         <v>47</v>
@@ -6187,7 +6210,7 @@
         <v>43327</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6203,7 +6226,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>43344</v>
       </c>
@@ -6225,7 +6248,7 @@
         <v>43361</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
       <c r="B41" s="20" t="s">
         <v>47</v>
@@ -6247,7 +6270,7 @@
         <v>43362</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6263,7 +6286,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>43374</v>
       </c>
@@ -6287,7 +6310,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41"/>
       <c r="B44" s="20" t="s">
         <v>46</v>
@@ -6309,7 +6332,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41"/>
       <c r="B45" s="20" t="s">
         <v>52</v>
@@ -6331,7 +6354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6347,7 +6370,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>43405</v>
       </c>
@@ -6371,7 +6394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41"/>
       <c r="B48" s="20" t="s">
         <v>47</v>
@@ -6393,7 +6416,7 @@
         <v>43426</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="41"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6409,7 +6432,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>43435</v>
       </c>
@@ -6433,7 +6456,7 @@
         <v>43455</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41"/>
       <c r="B51" s="20" t="s">
         <v>47</v>
@@ -6455,7 +6478,7 @@
         <v>43443</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6471,7 +6494,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>55</v>
       </c>
@@ -6489,7 +6512,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>43466</v>
       </c>
@@ -6513,7 +6536,7 @@
         <v>43480</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="20" t="s">
         <v>47</v>
@@ -6535,7 +6558,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6551,7 +6574,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>43497</v>
       </c>
@@ -6575,7 +6598,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="20" t="s">
         <v>50</v>
@@ -6595,7 +6618,7 @@
         <v>43518</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6611,7 +6634,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>43525</v>
       </c>
@@ -6635,7 +6658,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41"/>
       <c r="B61" s="20" t="s">
         <v>50</v>
@@ -6655,7 +6678,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6673,7 +6696,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>43556</v>
       </c>
@@ -6697,7 +6720,7 @@
         <v>43583</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6713,7 +6736,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>43586</v>
       </c>
@@ -6735,7 +6758,7 @@
         <v>43596</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41"/>
       <c r="B66" s="20" t="s">
         <v>50</v>
@@ -6755,7 +6778,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>43617</v>
       </c>
@@ -6777,7 +6800,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="20" t="s">
         <v>47</v>
@@ -6797,7 +6820,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="20" t="s">
         <v>48</v>
@@ -6819,7 +6842,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6835,7 +6858,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>43647</v>
       </c>
@@ -6857,7 +6880,7 @@
         <v>43660</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6873,7 +6896,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
         <v>43678</v>
       </c>
@@ -6897,7 +6920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41"/>
       <c r="B74" s="20" t="s">
         <v>52</v>
@@ -6919,7 +6942,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="41"/>
       <c r="B75" s="20" t="s">
         <v>52</v>
@@ -6939,7 +6962,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6955,7 +6978,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
         <v>43709</v>
       </c>
@@ -6979,7 +7002,7 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
       <c r="B78" s="20" t="s">
         <v>46</v>
@@ -7001,7 +7024,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
       <c r="B79" s="20" t="s">
         <v>47</v>
@@ -7023,7 +7046,7 @@
         <v>43722</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7039,7 +7062,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
         <v>43739</v>
       </c>
@@ -7063,7 +7086,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
       <c r="B82" s="20" t="s">
         <v>47</v>
@@ -7085,7 +7108,7 @@
         <v>43741</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7101,7 +7124,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
         <v>43770</v>
       </c>
@@ -7125,7 +7148,7 @@
         <v>43772</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="20" t="s">
         <v>48</v>
@@ -7145,7 +7168,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="20" t="s">
         <v>47</v>
@@ -7167,7 +7190,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="20" t="s">
         <v>47</v>
@@ -7189,7 +7212,7 @@
         <v>43799</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7205,7 +7228,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41">
         <v>43800</v>
       </c>
@@ -7229,7 +7252,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="20" t="s">
         <v>46</v>
@@ -7251,7 +7274,7 @@
         <v>43819</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7267,7 +7290,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="47" t="s">
         <v>61</v>
       </c>
@@ -7285,7 +7308,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41">
         <v>43831</v>
       </c>
@@ -7309,7 +7332,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="20" t="s">
         <v>63</v>
@@ -7329,7 +7352,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41">
         <v>43862</v>
       </c>
@@ -7353,7 +7376,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41"/>
       <c r="B96" s="20" t="s">
         <v>47</v>
@@ -7375,7 +7398,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="20" t="s">
         <v>48</v>
@@ -7397,7 +7420,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41">
         <v>43891</v>
       </c>
@@ -7421,7 +7444,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="20" t="s">
         <v>66</v>
@@ -7443,7 +7466,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41">
         <v>43983</v>
       </c>
@@ -7465,7 +7488,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
       <c r="B101" s="20" t="s">
         <v>47</v>
@@ -7487,7 +7510,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
       <c r="B102" s="20" t="s">
         <v>48</v>
@@ -7509,7 +7532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7525,7 +7548,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41">
         <v>44013</v>
       </c>
@@ -7547,7 +7570,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41"/>
       <c r="B105" s="20" t="s">
         <v>47</v>
@@ -7569,7 +7592,7 @@
         <v>44030</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41"/>
       <c r="B106" s="20" t="s">
         <v>48</v>
@@ -7591,7 +7614,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41"/>
       <c r="B107" s="20" t="s">
         <v>47</v>
@@ -7613,7 +7636,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41">
         <v>44044</v>
       </c>
@@ -7631,7 +7654,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41">
         <v>44075</v>
       </c>
@@ -7655,7 +7678,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41"/>
       <c r="B110" s="20" t="s">
         <v>50</v>
@@ -7675,7 +7698,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41">
         <v>44105</v>
       </c>
@@ -7699,7 +7722,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41">
         <v>44166</v>
       </c>
@@ -7721,7 +7744,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="47" t="s">
         <v>73</v>
       </c>
@@ -7739,7 +7762,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41">
         <v>44197</v>
       </c>
@@ -7763,7 +7786,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41">
         <v>44378</v>
       </c>
@@ -7787,7 +7810,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41">
         <v>44440</v>
       </c>
@@ -7809,7 +7832,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41">
         <v>44470</v>
       </c>
@@ -7831,7 +7854,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41">
         <v>44531</v>
       </c>
@@ -7855,7 +7878,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="41"/>
       <c r="B119" s="20" t="s">
         <v>46</v>
@@ -7877,7 +7900,7 @@
         <v>44399</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="41"/>
       <c r="B120" s="20" t="s">
         <v>47</v>
@@ -7899,7 +7922,7 @@
         <v>44711</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41"/>
       <c r="B121" s="20" t="s">
         <v>48</v>
@@ -7919,7 +7942,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="47" t="s">
         <v>77</v>
       </c>
@@ -7937,7 +7960,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41">
         <v>44743</v>
       </c>
@@ -7961,7 +7984,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
       <c r="B124" s="20" t="s">
         <v>47</v>
@@ -7983,7 +8006,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41"/>
       <c r="B125" s="20" t="s">
         <v>47</v>
@@ -8005,7 +8028,7 @@
         <v>44827</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="41">
         <v>44835</v>
       </c>
@@ -8029,7 +8052,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="41">
         <v>44896</v>
       </c>
@@ -8053,7 +8076,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="47" t="s">
         <v>80</v>
       </c>
@@ -8071,7 +8094,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="41">
         <v>44927</v>
       </c>
@@ -8095,7 +8118,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="20" t="s">
         <v>47</v>
@@ -8117,7 +8140,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41">
         <v>44958</v>
       </c>
@@ -8141,7 +8164,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41"/>
       <c r="B132" s="20" t="s">
         <v>83</v>
@@ -8163,7 +8186,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41">
         <v>44986</v>
       </c>
@@ -8187,7 +8210,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41">
         <v>45047</v>
       </c>
@@ -8211,7 +8234,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
       <c r="B135" s="20" t="s">
         <v>50</v>
@@ -8231,7 +8254,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="41"/>
       <c r="B136" s="20" t="s">
         <v>48</v>
@@ -8253,7 +8276,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41">
         <v>45078</v>
       </c>
@@ -8277,7 +8300,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41">
         <v>45170</v>
       </c>
@@ -8299,7 +8322,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="41"/>
       <c r="B139" s="20" t="s">
         <v>52</v>
@@ -8321,7 +8344,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="41">
         <v>45200</v>
       </c>
@@ -8345,7 +8368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="41"/>
       <c r="B141" s="20" t="s">
         <v>52</v>
@@ -8367,7 +8390,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="41">
         <v>45231</v>
       </c>
@@ -8391,7 +8414,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="41">
         <v>45261</v>
       </c>
@@ -8415,7 +8438,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="41">
         <v>45292</v>
       </c>
@@ -8433,7 +8456,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="41">
         <v>45323</v>
       </c>
@@ -8451,7 +8474,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="41">
         <v>45352</v>
       </c>
@@ -8469,7 +8492,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="41">
         <v>45383</v>
       </c>
@@ -8487,7 +8510,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="41">
         <v>45413</v>
       </c>
@@ -8505,7 +8528,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="41">
         <v>45444</v>
       </c>
@@ -8523,7 +8546,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="41">
         <v>45474</v>
       </c>
@@ -8541,7 +8564,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="41">
         <v>45505</v>
       </c>
@@ -8559,7 +8582,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="41">
         <v>45536</v>
       </c>
@@ -8577,7 +8600,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="41">
         <v>45566</v>
       </c>
@@ -8595,7 +8618,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="41">
         <v>45597</v>
       </c>
@@ -8613,7 +8636,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="41">
         <v>45627</v>
       </c>
@@ -8631,7 +8654,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="41">
         <v>45658</v>
       </c>
@@ -8649,7 +8672,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41">
         <v>45689</v>
       </c>
@@ -8667,7 +8690,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="41">
         <v>45717</v>
       </c>
@@ -8685,7 +8708,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="41">
         <v>45748</v>
       </c>
@@ -8703,7 +8726,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="41">
         <v>45778</v>
       </c>
@@ -8721,7 +8744,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="41">
         <v>45809</v>
       </c>
@@ -8739,7 +8762,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="41">
         <v>45839</v>
       </c>
@@ -8757,7 +8780,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="41">
         <v>45870</v>
       </c>
@@ -8775,7 +8798,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="41">
         <v>45901</v>
       </c>
@@ -8793,7 +8816,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41">
         <v>45931</v>
       </c>
@@ -8811,7 +8834,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="41">
         <v>45962</v>
       </c>
@@ -8829,7 +8852,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="41">
         <v>45992</v>
       </c>
@@ -8847,7 +8870,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="41">
         <v>46023</v>
       </c>
@@ -8865,7 +8888,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="41">
         <v>46054</v>
       </c>
@@ -8883,7 +8906,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="41">
         <v>46082</v>
       </c>
@@ -8901,7 +8924,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="41">
         <v>46113</v>
       </c>
@@ -8919,7 +8942,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="41">
         <v>46143</v>
       </c>
@@ -8937,7 +8960,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="41">
         <v>46174</v>
       </c>
@@ -8955,7 +8978,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41">
         <v>46204</v>
       </c>
@@ -8973,7 +8996,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="41">
         <v>46235</v>
       </c>
@@ -8991,7 +9014,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="41">
         <v>46266</v>
       </c>
@@ -9009,7 +9032,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="41">
         <v>46296</v>
       </c>
@@ -9027,7 +9050,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="41">
         <v>46327</v>
       </c>
@@ -9045,7 +9068,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="41">
         <v>46357</v>
       </c>
@@ -9063,7 +9086,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="41">
         <v>46388</v>
       </c>
@@ -9081,7 +9104,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="41">
         <v>46419</v>
       </c>
@@ -9099,7 +9122,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="41">
         <v>46447</v>
       </c>
@@ -9117,7 +9140,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="41">
         <v>46478</v>
       </c>
@@ -9135,7 +9158,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="41">
         <v>46508</v>
       </c>
@@ -9153,7 +9176,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="41">
         <v>46539</v>
       </c>
@@ -9171,7 +9194,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="41">
         <v>46569</v>
       </c>
@@ -9189,7 +9212,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="41">
         <v>46600</v>
       </c>
@@ -9207,7 +9230,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="41">
         <v>46631</v>
       </c>
@@ -9225,7 +9248,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="41">
         <v>46661</v>
       </c>
@@ -9243,7 +9266,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="41">
         <v>46692</v>
       </c>
@@ -9261,7 +9284,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="41">
         <v>46722</v>
       </c>
@@ -9279,7 +9302,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="41">
         <v>46753</v>
       </c>
@@ -9297,7 +9320,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="41">
         <v>46784</v>
       </c>
@@ -9315,7 +9338,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="41">
         <v>46813</v>
       </c>
@@ -9333,7 +9356,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="41">
         <v>46844</v>
       </c>
@@ -9351,7 +9374,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="41">
         <v>46874</v>
       </c>
@@ -9369,7 +9392,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="41">
         <v>46905</v>
       </c>
@@ -9387,7 +9410,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="41">
         <v>46935</v>
       </c>
@@ -9405,7 +9428,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41">
         <v>46966</v>
       </c>
@@ -9423,7 +9446,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="41">
         <v>46997</v>
       </c>
@@ -9441,7 +9464,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="41">
         <v>47027</v>
       </c>
@@ -9459,7 +9482,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="41"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -9475,7 +9498,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="41"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -9491,7 +9514,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="41"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -9507,7 +9530,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="41"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -9523,7 +9546,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="41"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -9539,7 +9562,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="41"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -9555,7 +9578,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="41"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -9571,7 +9594,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="41"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -9587,7 +9610,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="41"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -9603,7 +9626,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="41"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -9619,7 +9642,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="41"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -9635,7 +9658,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="41"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -9651,7 +9674,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="41"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -9667,7 +9690,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="41"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -9683,7 +9706,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="41"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -9699,7 +9722,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="41"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -9715,7 +9738,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="41"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -9731,7 +9754,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="41"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -9747,7 +9770,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="41"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -9763,7 +9786,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="41"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -9779,7 +9802,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="41"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -9795,7 +9818,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="41"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -9811,7 +9834,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="41"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -9827,7 +9850,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="41"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -9843,7 +9866,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="41"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -9859,7 +9882,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="41"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -9875,7 +9898,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="41"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -9891,7 +9914,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="41"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -9907,7 +9930,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="41"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -9923,7 +9946,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="41"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -9939,7 +9962,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="41"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -9955,7 +9978,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="41"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -9971,7 +9994,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="41"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -9987,7 +10010,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="41"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -10003,7 +10026,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="41"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -10019,7 +10042,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="41"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -10035,7 +10058,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="41"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -10051,7 +10074,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="41"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -10067,7 +10090,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="41"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -10083,7 +10106,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="41"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -10099,7 +10122,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="41"/>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -10115,7 +10138,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="41"/>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -10131,7 +10154,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="41"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -10147,7 +10170,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="41"/>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -10163,7 +10186,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="41"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -10179,7 +10202,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="41"/>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -10195,7 +10218,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="41"/>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -10211,7 +10234,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="41"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -10227,7 +10250,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="41"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -10243,7 +10266,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="42"/>
       <c r="B251" s="15"/>
       <c r="C251" s="43"/>
@@ -10275,10 +10298,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10301,41 +10324,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="J1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10364,7 +10387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>88.853999999999999</v>
       </c>
@@ -10390,7 +10413,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -10405,10 +10428,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -10421,14 +10444,14 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -10454,7 +10477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -10480,7 +10503,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -10506,7 +10529,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -10532,7 +10555,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -10558,7 +10581,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -10584,7 +10607,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -10610,7 +10633,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -10636,7 +10659,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -10656,7 +10679,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -10676,7 +10699,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -10696,7 +10719,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -10717,7 +10740,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -10738,7 +10761,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -10759,7 +10782,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -10780,7 +10803,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -10801,7 +10824,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -10822,7 +10845,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -10843,7 +10866,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -10864,7 +10887,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -10885,7 +10908,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -10906,7 +10929,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -10927,7 +10950,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -10948,7 +10971,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -10969,7 +10992,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -10990,7 +11013,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -11011,7 +11034,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -11032,7 +11055,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -11053,7 +11076,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -11074,7 +11097,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -11095,7 +11118,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -11116,7 +11139,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -11125,7 +11148,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -11134,7 +11157,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -11143,7 +11166,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -11152,7 +11175,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -11161,7 +11184,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -11170,7 +11193,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -11179,7 +11202,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -11188,7 +11211,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -11197,7 +11220,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -11206,7 +11229,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -11215,7 +11238,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -11224,7 +11247,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -11233,7 +11256,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -11242,7 +11265,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -11251,7 +11274,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -11260,7 +11283,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -11269,7 +11292,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -11278,7 +11301,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -11287,7 +11310,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -11296,7 +11319,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -11305,7 +11328,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -11314,7 +11337,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -11323,7 +11346,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -11332,7 +11355,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -11341,7 +11364,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -11350,7 +11373,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -11359,7 +11382,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -11368,7 +11391,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -11377,7 +11400,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
